--- a/example/raw_dyn.xlsx
+++ b/example/raw_dyn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/yangche_umich_edu/Documents/SUMO_utils/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_87BFD5C7B46F00C6558877FE1BDEC90876CC4EA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FE78CF-F602-46E3-8605-7D2F6CEEFFBC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_87BFD5C7B46F00C6558877FE1BDEC90876CC4EA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09B9CD62-9239-4586-91E4-3BF3CB182DC8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
